--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_BaoCaoTinhHinhThucHienDuAn.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_BaoCaoTinhHinhThucHienDuAn.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Viettel\28-8-clonecode\sourcecode\viettel_ns\Report_ExcelFrom\QLNH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\tuananh\qlns-ctc-bqp\sourcecode\viettel_ns\Report_ExcelFrom\QLNH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="__dt__">Sheet1!$B$18:$M$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$M$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$M$21</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -220,7 +220,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,40 +293,10 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
+      <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -432,7 +402,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -453,7 +423,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -467,47 +436,55 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -796,29 +773,29 @@
   </sheetPr>
   <dimension ref="B1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="0.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="0.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="23" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="1" customWidth="1"/>
     <col min="8" max="8" width="21" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.44140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="21.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="19.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.44140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="1.109375" style="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="1.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="33" t="s">
         <v>23</v>
       </c>
@@ -834,457 +811,459 @@
       <c r="L1" s="33"/>
       <c r="M1" s="33"/>
     </row>
-    <row r="2" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="34" t="s">
+    <row r="2" spans="2:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-    </row>
-    <row r="3" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="34" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+    </row>
+    <row r="3" spans="2:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-    </row>
-    <row r="4" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="23" t="s">
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+    </row>
+    <row r="4" spans="2:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-    </row>
-    <row r="5" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="24"/>
-      <c r="C5" s="23" t="s">
+      <c r="C4" s="34"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+    </row>
+    <row r="5" spans="2:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="32"/>
+      <c r="C5" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-    </row>
-    <row r="6" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="24"/>
-      <c r="C6" s="23" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+    </row>
+    <row r="6" spans="2:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="32"/>
+      <c r="C6" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-    </row>
-    <row r="7" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="24"/>
-      <c r="C7" s="23" t="s">
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+    </row>
+    <row r="7" spans="2:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="32"/>
+      <c r="C7" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-    </row>
-    <row r="8" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="24"/>
-      <c r="C8" s="23" t="s">
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+    </row>
+    <row r="8" spans="2:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="32"/>
+      <c r="C8" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-    </row>
-    <row r="9" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="24"/>
-      <c r="C9" s="23" t="s">
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+    </row>
+    <row r="9" spans="2:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="32"/>
+      <c r="C9" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-    </row>
-    <row r="10" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="24"/>
-      <c r="C10" s="23" t="s">
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+    </row>
+    <row r="10" spans="2:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="32"/>
+      <c r="C10" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-    </row>
-    <row r="11" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="22"/>
-      <c r="C11" s="23" t="s">
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+    </row>
+    <row r="11" spans="2:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="32"/>
+      <c r="C11" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-    </row>
-    <row r="12" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="23" t="s">
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+    </row>
+    <row r="12" spans="2:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="32"/>
+      <c r="C12" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-    </row>
-    <row r="13" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="22"/>
-      <c r="C13" s="23" t="s">
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+    </row>
+    <row r="13" spans="2:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="32"/>
+      <c r="C13" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-    </row>
-    <row r="14" spans="2:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="23" t="s">
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+    </row>
+    <row r="14" spans="2:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-    </row>
-    <row r="15" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="23"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="32"/>
+    </row>
+    <row r="15" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="34"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
     </row>
     <row r="16" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="22" t="s">
         <v>38</v>
       </c>
       <c r="E16" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="I16" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="J16" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="K16" s="36"/>
-      <c r="L16" s="35" t="s">
+      <c r="K16" s="23"/>
+      <c r="L16" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="M16" s="36"/>
+      <c r="M16" s="23"/>
     </row>
     <row r="17" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="28" t="s">
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="K17" s="28" t="s">
+      <c r="K17" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="L17" s="28" t="s">
+      <c r="L17" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="M17" s="28" t="s">
+      <c r="M17" s="24" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="E18" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="29" t="s">
+      <c r="H18" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="J18" s="31" t="s">
+      <c r="J18" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="K18" s="32" t="s">
+      <c r="K18" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="L18" s="32" t="s">
+      <c r="L18" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="M18" s="32" t="s">
+      <c r="M18" s="28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="19.2" x14ac:dyDescent="0.35">
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-    </row>
-    <row r="20" spans="2:13" ht="19.2" x14ac:dyDescent="0.35">
-      <c r="B20" s="16"/>
-      <c r="C20" s="27" t="s">
+    <row r="19" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+    </row>
+    <row r="20" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="30"/>
+      <c r="C20" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-    </row>
-    <row r="23" spans="2:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-    </row>
-    <row r="24" spans="2:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="B24" s="19"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="19"/>
-    </row>
-    <row r="25" spans="2:13" ht="18" x14ac:dyDescent="0.25">
-      <c r="B25" s="19"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-    </row>
-    <row r="26" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-    </row>
-    <row r="27" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-    </row>
-    <row r="28" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-    </row>
-    <row r="29" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="B29" s="19"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="19"/>
-    </row>
-    <row r="30" spans="2:13" ht="16.8" x14ac:dyDescent="0.25">
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+    </row>
+    <row r="23" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+    </row>
+    <row r="24" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="18"/>
+    </row>
+    <row r="25" spans="2:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+    </row>
+    <row r="26" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+    </row>
+    <row r="27" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+    </row>
+    <row r="28" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+    </row>
+    <row r="29" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B29" s="18"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+      <c r="H29" s="20"/>
+      <c r="I29" s="20"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="18"/>
+    </row>
+    <row r="30" spans="2:13" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" s="14"/>
@@ -1316,7 +1295,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="66" fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1328,12 +1307,12 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.109375" style="4"/>
+    <col min="1" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1351,7 +1330,7 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1367,7 +1346,7 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1385,7 +1364,7 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1401,7 +1380,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -1417,7 +1396,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
@@ -1437,7 +1416,7 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1453,7 +1432,7 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1477,7 +1456,7 @@
       </c>
       <c r="N8" s="3"/>
     </row>
-    <row r="9" spans="1:14" ht="79.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="77.25" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
@@ -1511,7 +1490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="H10" s="4" t="s">
         <v>17</v>
       </c>
@@ -1522,7 +1501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H11" s="4" t="s">
         <v>19</v>
       </c>
